--- a/Test_Data.xlsx
+++ b/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/firdi/OneDrive - Deloitte (O365D)/Documents/Selenium_Main_Assignmnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E40C5C5-A464-9940-B2BB-2131F9C346E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9072C60-29CB-C248-BAEA-00D2A0F4DEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{E7AFE29E-E74F-8642-80B4-6E9C778320BD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>test_Login</t>
   </si>
@@ -63,10 +63,103 @@
     <t>name</t>
   </si>
   <si>
-    <t>loggedinuser</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>grocery_page_title</t>
+  </si>
+  <si>
+    <t>Flipkart Grocery Store - Buy Groceries Online &amp;amp; Get Rs.1 Deals at Flipkart.com</t>
+  </si>
+  <si>
+    <t>logged_in_user</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Origo Fresh Gujarat Toor Dal (Split)</t>
+  </si>
+  <si>
+    <t>Amul Processed cheese Cubes</t>
+  </si>
+  <si>
+    <t>UNIBIC Assorted Cookies</t>
+  </si>
+  <si>
+    <t>quantity_in_cart</t>
+  </si>
+  <si>
+    <t>My Cart (3)</t>
+  </si>
+  <si>
+    <t>test_wishlist</t>
+  </si>
+  <si>
+    <t>kids_dress1</t>
+  </si>
+  <si>
+    <t>PPX Girls Midi/Knee Length Casual Dress</t>
+  </si>
+  <si>
+    <t>women_saree_1</t>
+  </si>
+  <si>
+    <t>Ek-Pal Checkered Daily Wear Cotton Blend, Poly Silk Saree</t>
+  </si>
+  <si>
+    <t>search_filter</t>
+  </si>
+  <si>
+    <t>filter_product</t>
+  </si>
+  <si>
+    <t>Tata BESAN 1 KG</t>
+  </si>
+  <si>
+    <t>search_product</t>
+  </si>
+  <si>
+    <t>Besan</t>
+  </si>
+  <si>
+    <t>add_address</t>
+  </si>
+  <si>
+    <t>Address_name</t>
+  </si>
+  <si>
+    <t>Address_phone</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Home_Test</t>
+  </si>
+  <si>
+    <t>9738687737</t>
+  </si>
+  <si>
+    <t>560051</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Jpnagar 5th cross</t>
   </si>
 </sst>
 </file>
@@ -111,10 +204,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -430,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5752FA-5421-0E44-B733-D04398AC9CA1}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,10 +537,16 @@
     <col min="1" max="1" width="24.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="34.83203125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="14.83203125" style="2" customWidth="1"/>
+    <col min="11" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="17.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -458,10 +560,52 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,18 +619,197 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{01CEC971-A1CD-CF41-87D5-488D39EE8B55}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{F750CA2F-7EE9-0C47-8648-FAF6F9D4CD3A}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{5E3A25ED-6342-9F46-8C50-FAC52D4B17C0}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{5458759F-3753-614A-AC97-E8694CDD13CA}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{014B8F4D-3FBF-424A-A034-63E4C2B5263F}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{07F37C69-0585-7546-8F2E-760C880096CE}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{3E30B6A8-79E6-A146-8F56-EF769FC08383}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{61273A22-DD9D-AD4A-8299-D5FD4B219DE3}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{1CF1FD81-A349-E94B-9B1E-5AEB45045FE7}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{E2C6252D-3B2E-4149-A5F8-9B57C96C1884}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
